--- a/medicine/Enfance/Marcus_Malte/Marcus_Malte.xlsx
+++ b/medicine/Enfance/Marcus_Malte/Marcus_Malte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcus Malte, pseudonyme de Marc Martiniani, né le 30 décembre 1967 à La Seyne-sur-Mer[1], est un romancier et nouvelliste français, auteur de plusieurs romans policiers et ouvrages de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcus Malte, pseudonyme de Marc Martiniani, né le 30 décembre 1967 à La Seyne-sur-Mer, est un romancier et nouvelliste français, auteur de plusieurs romans policiers et ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un baccalauréat littéraire, il obtient une licence d'études cinématographiques et devient responsable d'une salle de cinéma de sa ville natale. Également pianiste, il joue régulièrement au sein d'un groupe de jazz. Cette expérience lui inspire Mister, le héros de son premier roman, Le Doigt d'Horace (1996). Mister, un musicien noir joue du piano dans une boîte parisienne où un certain Franck, venu le féliciter, lui révèle un soir avoir tué trois individus. Avec Bob, un ami chauffeur de taxi, Mister se lance dans une enquête pour en savoir plus.  Ce héros singulier dans l'univers du polar français revient dans Le Lac des singes (1997) où il accepte un contrat pour faire partie d'une formation qui se produit au Casino d'Évian. À son arrivée sur place, il apprend par le commissaire Jabron que plusieurs joueurs qui ont récemment gagné aux tables de jeu ont été assassinés. Mister sympathise avec des employés du Casino et comprend bientôt que l'un d'entre eux est le coupable recherché.
-Marcus Malte abandonne ensuite Mister pour écrire des romans noirs, dont Carnage, constellation (1998), récit de la rencontre entre un jeune homme trans et un truand, Garden of Love (2007), lauréat de plusieurs prix, et Les Harmoniques (2011), qui remporte le Prix Mystère de la critique 2012. La critique « a comparé son univers romanesque à ceux de Jim Thompson, David Goodis ou Harry Crews »[2].
+Marcus Malte abandonne ensuite Mister pour écrire des romans noirs, dont Carnage, constellation (1998), récit de la rencontre entre un jeune homme trans et un truand, Garden of Love (2007), lauréat de plusieurs prix, et Les Harmoniques (2011), qui remporte le Prix Mystère de la critique 2012. La critique « a comparé son univers romanesque à ceux de Jim Thompson, David Goodis ou Harry Crews ».
 Il a également fait paraître des romans policiers destinés à la jeunesse, notamment Il va venir (2005) et De poussière et de sang (2007).
-Le 25 octobre 2016, le prix Fémina lui est attribué pour Le Garçon. En juin 2017, il reçoit pour ce même roman le prix Cardinal-Perraud, des mains de Mgr Benoît Rivière[3].
+Le 25 octobre 2016, le prix Fémina lui est attribué pour Le Garçon. En juin 2017, il reçoit pour ce même roman le prix Cardinal-Perraud, des mains de Mgr Benoît Rivière.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle.
 </t>
         </is>
       </c>
@@ -578,14 +594,98 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Série Mister
-Le Doigt d'Horace, Fleuve noir, 1996 ; réédition, Gallimard, coll. « Folio policier » no 551, 2009
-Le Lac des singes, Fleuve noir, 1997 ; réédition, Gallimard, coll. « Folio policier » no 564, 2009
-Série Le Poulpe
-Le Vrai Con maltais, Baleine, coll. « Le Poulpe » no 168, 1999
-Autres romans
-Carnage, constellation, Fleuve noir, 1998 ; réédition, Gallimard, coll. « Folio policier » no 506, 2008
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Mister</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Doigt d'Horace, Fleuve noir, 1996 ; réédition, Gallimard, coll. « Folio policier » no 551, 2009
+Le Lac des singes, Fleuve noir, 1997 ; réédition, Gallimard, coll. « Folio policier » no 564, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Le Poulpe</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Vrai Con maltais, Baleine, coll. « Le Poulpe » no 168, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Carnage, constellation, Fleuve noir, 1998 ; réédition, Gallimard, coll. « Folio policier » no 506, 2008
 Et tous les autres crèveront, Zulma, 2001
 La Part des chiens, Zulma, 2003 ; réédition, Gallimard, coll. « Folio policier » no 519, 2008 Prix Polar dans la ville 2004
 Plage des Sablettes, souvenirs d'épaves, Autrement, 2005
@@ -593,13 +693,81 @@
 Les Harmoniques, Gallimard, coll. « Série noire », 2011 Prix Mystère de la critique 2012
 Le Garçon, Zulma, 2016  — Prix Femina 2016
 Aires, Zulma, 2020
-Qui se souviendra de Phily-Jo ?, Zulma, 2022
-Recueils de nouvelles
-Intérieur Nord, Zulma, 2005 Prix du Rotary Club de Paris - Prix de la Nouvelle de Nanterre - Prix des Lycéens et Collégiens
-Toute la nuit devant nous, Zulma, 2008 Prix François-Mauriac de l'Académie française (médaille de bronze) 2009[5]
-Fannie et Freddie, Zulma, 2014 (inclus les nouvelles Fannie et Freddie et Ceux qui construisent les bateaux ne les prennent pas)
-Nouvelles
-Les Étourneaux, in Douze et amères, collectif, Fleuve noir, 1997
+Qui se souviendra de Phily-Jo ?, Zulma, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Intérieur Nord, Zulma, 2005 Prix du Rotary Club de Paris - Prix de la Nouvelle de Nanterre - Prix des Lycéens et Collégiens
+Toute la nuit devant nous, Zulma, 2008 Prix François-Mauriac de l'Académie française (médaille de bronze) 2009
+Fannie et Freddie, Zulma, 2014 (inclus les nouvelles Fannie et Freddie et Ceux qui construisent les bateaux ne les prennent pas)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Étourneaux, in Douze et amères, collectif, Fleuve noir, 1997
 Les Heures les plus sombres de ma vie, in Sous la couverture quelques faits d'hiver, collectif, DAL, 1998
 Novembre 2999, in Agenda du polar, collectif, Stylus, 1999
 La Montée des eaux, journal Libération, 1999 (série "Ligne noire")
@@ -619,9 +787,43 @@
 Tamara, suite et fin, dans le recueil Femmes en colère, IN8, coll. « Polaroïd », 2013
 Musher, Zulma, 2013  (ISBN 978-2-84304-652-0) (d'abord publiée dans le recueil de nouvelles Intérieur Nord en 2005)
 Far west, Éditions In8, 2016 ; réédition dans le volume Cannisses, suivi de Far West, Gallimard, coll. « Folio » no 6355, 2017
-Bande décimée nouvelle dans 13 à table ! 2018. Pocket , 2016.  (ISBN 978-2-266-27952-9)
-Ouvrages de littérature d'enfance et de jeunesse
-Cent jours avec Antoine et Toine, Seuil, 2000
+Bande décimée nouvelle dans 13 à table ! 2018. Pocket , 2016.  (ISBN 978-2-266-27952-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cent jours avec Antoine et Toine, Seuil, 2000
 Sous ma couverture, Pocket jeunesse, coll. « Kid pocket » no 661, 2001
 Bandit, Pocket junior no 1201, 2005
 Il va venir, Syros, coll. « Souris noire », 2006 Prix du polar jeunesse de Montigny-lès-Cormeilles - Prix du polar jeunesse de Neuilly-Plaisance - Prix du Roseau 2007
@@ -639,70 +841,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Marcus_Malte</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En bande dessinée
-Le Vrai Con maltais, adaptation de Jampur Fraize, Six pieds sous terre, coll. « Le Poulpe », 2002
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Vrai Con maltais, adaptation de Jampur Fraize, Six pieds sous terre, coll. « Le Poulpe », 2002
 Les Nuits de Saturne, adaptation de Pierre-Henry Gomont, Éditions Sarbacane, 2015 (D'après le roman Carnage constellation paru en 1998)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Marcus_Malte</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcus_Malte</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prix Michel-Lebrun de la Ville du Mans 2007 pour Garden of love[6]
-Prix des lecteurs Quai du polar / 20 minutes 2008 pour Garden of love[7]
-Grand prix des lectrices de Elle 2008 pour Garden of love[8]
-Prix François-Mauriac 2009 pour Toute la nuit devant nous[9]
-Prix Mystère de la critique 2012 pour Les Harmoniques[10]
-Prix Femina 2016 pour Le Garçon[11]</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prix Michel-Lebrun de la Ville du Mans 2007 pour Garden of love
+Prix des lecteurs Quai du polar / 20 minutes 2008 pour Garden of love
+Grand prix des lectrices de Elle 2008 pour Garden of love
+Prix François-Mauriac 2009 pour Toute la nuit devant nous
+Prix Mystère de la critique 2012 pour Les Harmoniques
+Prix Femina 2016 pour Le Garçon</t>
         </is>
       </c>
     </row>
